--- a/Book1 (Autosaved).xlsx
+++ b/Book1 (Autosaved).xlsx
@@ -12,12 +12,11 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="46">
   <si>
     <t>Distances from Manali</t>
   </si>
@@ -152,6 +151,9 @@
   </si>
   <si>
     <t xml:space="preserve">Aleo,Naggar Road, Manali 175131, India </t>
+  </si>
+  <si>
+    <t>ZxsasA</t>
   </si>
 </sst>
 </file>
@@ -601,10 +603,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -613,19 +615,19 @@
     <col min="2" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
     </row>
-    <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>1</v>
       </c>
@@ -636,7 +638,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -645,7 +647,7 @@
       </c>
       <c r="E5" s="7"/>
     </row>
-    <row r="6" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -654,7 +656,7 @@
       </c>
       <c r="E6" s="7"/>
     </row>
-    <row r="7" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
@@ -665,7 +667,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
@@ -675,8 +677,11 @@
       <c r="E8" s="8" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="J8" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
@@ -684,7 +689,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>13</v>
       </c>
@@ -692,7 +697,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>15</v>
       </c>
@@ -700,7 +705,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>16</v>
       </c>
@@ -708,7 +713,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>41</v>
       </c>
@@ -716,7 +721,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>18</v>
       </c>
@@ -724,7 +729,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>20</v>
       </c>
@@ -732,7 +737,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>22</v>
       </c>
